--- a/Configuration/EngineeringData.xlsx
+++ b/Configuration/EngineeringData.xlsx
@@ -1,77 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{176BE10C-83AC-4C1B-9B0D-B49C50A84E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E72AD349-7CA5-41BC-A1D9-B30489DF58D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7215" firstSheet="54" activeTab="57" xr2:uid="{11F76101-2DEB-4888-A059-264E6FCA3D36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="7950" firstSheet="51" activeTab="54" xr2:uid="{11F76101-2DEB-4888-A059-264E6FCA3D36}"/>
   </bookViews>
   <sheets>
     <sheet name="WCB_MB_WO_List" sheetId="1" r:id="rId1"/>
     <sheet name="Indent_List" sheetId="2" r:id="rId2"/>
-    <sheet name="Issue_List" sheetId="3" r:id="rId3"/>
-    <sheet name="ServiceIndent_List" sheetId="4" r:id="rId4"/>
-    <sheet name="GRN_List" sheetId="5" r:id="rId5"/>
-    <sheet name="GatePass_List" sheetId="6" r:id="rId6"/>
-    <sheet name="Ropo_List" sheetId="7" r:id="rId7"/>
-    <sheet name="PendingIndent_List" sheetId="8" r:id="rId8"/>
-    <sheet name="TransferOrder_List" sheetId="9" r:id="rId9"/>
-    <sheet name="MaterialReco_List" sheetId="10" r:id="rId10"/>
-    <sheet name="Return_List" sheetId="11" r:id="rId11"/>
-    <sheet name="Tendering_TenderDocument_List" sheetId="12" r:id="rId12"/>
-    <sheet name="Tendering_ExpOfInter_List" sheetId="13" r:id="rId13"/>
-    <sheet name="Tendering_ContrResponse_List" sheetId="14" r:id="rId14"/>
-    <sheet name="Tendering_FloatTendering_List" sheetId="15" r:id="rId15"/>
-    <sheet name="Tendering_PreTenderEst_List" sheetId="16" r:id="rId16"/>
-    <sheet name="Tendering_TenderingForm_List" sheetId="17" r:id="rId17"/>
-    <sheet name="Tendering_TenderReceipt_List" sheetId="18" r:id="rId18"/>
-    <sheet name="Tendering_RateComparison_List" sheetId="19" r:id="rId19"/>
-    <sheet name="Tendering_TenderLinkToWO_List" sheetId="20" r:id="rId20"/>
-    <sheet name="Abstract_List" sheetId="21" r:id="rId21"/>
-    <sheet name="Modification_List" sheetId="22" r:id="rId22"/>
-    <sheet name="CheckList_List" sheetId="23" r:id="rId23"/>
-    <sheet name="Mbook_List" sheetId="24" r:id="rId24"/>
-    <sheet name="MBookAbstract_List" sheetId="25" r:id="rId25"/>
-    <sheet name="Labour_List" sheetId="26" r:id="rId26"/>
-    <sheet name="Contracting_Client_List" sheetId="27" r:id="rId27"/>
-    <sheet name="Contracting_Leads_List" sheetId="28" r:id="rId28"/>
-    <sheet name="Contracting_Jobs_List" sheetId="29" r:id="rId29"/>
-    <sheet name="Contracting_Contacts_List" sheetId="30" r:id="rId30"/>
-    <sheet name="DPREquipment_List" sheetId="31" r:id="rId31"/>
-    <sheet name="DPRCriticalpoint_List" sheetId="32" r:id="rId32"/>
-    <sheet name="DPRWorkexecution_List" sheetId="33" r:id="rId33"/>
-    <sheet name="DPRCubeResults_List" sheetId="34" r:id="rId34"/>
-    <sheet name="BankCredit_List" sheetId="35" r:id="rId35"/>
-    <sheet name="BondRequest_List" sheetId="37" r:id="rId36"/>
-    <sheet name="BondPayment_List" sheetId="38" r:id="rId37"/>
-    <sheet name="LabourCountMapping_List" sheetId="36" r:id="rId38"/>
-    <sheet name="Billing_WO_List" sheetId="43" r:id="rId39"/>
-    <sheet name="Billing_MiscExpenses_List" sheetId="44" r:id="rId40"/>
-    <sheet name="Billing_Advance_List" sheetId="45" r:id="rId41"/>
-    <sheet name="Billing_DebitNote_List" sheetId="46" r:id="rId42"/>
-    <sheet name="Billing_DebitNoteReceipt_List" sheetId="47" r:id="rId43"/>
-    <sheet name="Billing_LabourPayment_List" sheetId="48" r:id="rId44"/>
-    <sheet name="Billing_LabourAdvance_List" sheetId="49" r:id="rId45"/>
-    <sheet name="BillingReceipt_List" sheetId="39" r:id="rId46"/>
-    <sheet name="BillingCreditNote_List" sheetId="40" r:id="rId47"/>
-    <sheet name="Billing_Invoice_List" sheetId="50" r:id="rId48"/>
-    <sheet name="Asset_List" sheetId="51" r:id="rId49"/>
-    <sheet name="AssetSubType_List" sheetId="52" r:id="rId50"/>
-    <sheet name="AssetType_List" sheetId="53" r:id="rId51"/>
-    <sheet name="Consultant_List" sheetId="54" r:id="rId52"/>
-    <sheet name="Contractingclient_List" sheetId="55" r:id="rId53"/>
-    <sheet name="Contractor_List" sheetId="56" r:id="rId54"/>
-    <sheet name="DocTemplate_List" sheetId="57" r:id="rId55"/>
-    <sheet name="EstimationChargeType_List" sheetId="58" r:id="rId56"/>
-    <sheet name="RateMaster_List" sheetId="59" r:id="rId57"/>
-    <sheet name="StoreMaster_List" sheetId="60" r:id="rId58"/>
+    <sheet name="PO_List" sheetId="61" r:id="rId3"/>
+    <sheet name="Issue_List" sheetId="3" r:id="rId4"/>
+    <sheet name="ServiceIndent_List" sheetId="4" r:id="rId5"/>
+    <sheet name="GRN_List" sheetId="5" r:id="rId6"/>
+    <sheet name="GatePass_List" sheetId="6" r:id="rId7"/>
+    <sheet name="Ropo_List" sheetId="7" r:id="rId8"/>
+    <sheet name="PendingIndent_List" sheetId="8" r:id="rId9"/>
+    <sheet name="TransferOrder_List" sheetId="9" r:id="rId10"/>
+    <sheet name="MaterialReco_List" sheetId="10" r:id="rId11"/>
+    <sheet name="Return_List" sheetId="11" r:id="rId12"/>
+    <sheet name="Tendering_TenderDocument_List" sheetId="12" r:id="rId13"/>
+    <sheet name="Tendering_ExpOfInter_List" sheetId="13" r:id="rId14"/>
+    <sheet name="Tendering_ContrResponse_List" sheetId="14" r:id="rId15"/>
+    <sheet name="Tendering_FloatTendering_List" sheetId="15" r:id="rId16"/>
+    <sheet name="Tendering_PreTenderEst_List" sheetId="16" r:id="rId17"/>
+    <sheet name="Tendering_TenderingForm_List" sheetId="17" r:id="rId18"/>
+    <sheet name="Tendering_TenderReceipt_List" sheetId="18" r:id="rId19"/>
+    <sheet name="Tendering_RateComparison_List" sheetId="19" r:id="rId20"/>
+    <sheet name="Tendering_TenderLinkToWO_List" sheetId="20" r:id="rId21"/>
+    <sheet name="Abstract_List" sheetId="21" r:id="rId22"/>
+    <sheet name="Modification_List" sheetId="22" r:id="rId23"/>
+    <sheet name="CheckList_List" sheetId="23" r:id="rId24"/>
+    <sheet name="Mbook_List" sheetId="24" r:id="rId25"/>
+    <sheet name="MBookAbstract_List" sheetId="25" r:id="rId26"/>
+    <sheet name="Labour_List" sheetId="26" r:id="rId27"/>
+    <sheet name="Contracting_Client_List" sheetId="27" r:id="rId28"/>
+    <sheet name="Contracting_Leads_List" sheetId="28" r:id="rId29"/>
+    <sheet name="Contracting_Jobs_List" sheetId="29" r:id="rId30"/>
+    <sheet name="Contracting_Contacts_List" sheetId="30" r:id="rId31"/>
+    <sheet name="DPREquipment_List" sheetId="31" r:id="rId32"/>
+    <sheet name="DPRCriticalpoint_List" sheetId="32" r:id="rId33"/>
+    <sheet name="DPRWorkexecution_List" sheetId="33" r:id="rId34"/>
+    <sheet name="DPRCubeResults_List" sheetId="34" r:id="rId35"/>
+    <sheet name="BankCredit_List" sheetId="35" r:id="rId36"/>
+    <sheet name="BondRequest_List" sheetId="37" r:id="rId37"/>
+    <sheet name="BondPayment_List" sheetId="38" r:id="rId38"/>
+    <sheet name="LabourCountMapping_List" sheetId="36" r:id="rId39"/>
+    <sheet name="Billing_WO_List" sheetId="43" r:id="rId40"/>
+    <sheet name="Billing_MiscExpenses_List" sheetId="44" r:id="rId41"/>
+    <sheet name="Billing_Advance_List" sheetId="45" r:id="rId42"/>
+    <sheet name="Billing_DebitNote_List" sheetId="46" r:id="rId43"/>
+    <sheet name="Billing_DebitNoteReceipt_List" sheetId="47" r:id="rId44"/>
+    <sheet name="Billing_LabourPayment_List" sheetId="48" r:id="rId45"/>
+    <sheet name="Billing_LabourAdvance_List" sheetId="49" r:id="rId46"/>
+    <sheet name="BillingReceipt_List" sheetId="39" r:id="rId47"/>
+    <sheet name="BillingCreditNote_List" sheetId="40" r:id="rId48"/>
+    <sheet name="Billing_Invoice_List" sheetId="50" r:id="rId49"/>
+    <sheet name="Asset_List" sheetId="51" r:id="rId50"/>
+    <sheet name="AssetSubType_List" sheetId="52" r:id="rId51"/>
+    <sheet name="AssetType_List" sheetId="53" r:id="rId52"/>
+    <sheet name="Consultant_List" sheetId="54" r:id="rId53"/>
+    <sheet name="Contractingclient_List" sheetId="55" r:id="rId54"/>
+    <sheet name="Contractor_List" sheetId="56" r:id="rId55"/>
+    <sheet name="DocTemplate_List" sheetId="57" r:id="rId56"/>
+    <sheet name="EstimationChargeType_List" sheetId="58" r:id="rId57"/>
+    <sheet name="RateMaster_List" sheetId="59" r:id="rId58"/>
+    <sheet name="StoreMaster_List" sheetId="60" r:id="rId59"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">CheckList_List!$A$2:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">CheckList_List!$A$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S22"/>
+  <oleSize ref="A1:W24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="49">
   <si>
     <t>project</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Bengal Shrachi Housing Development Limited</t>
   </si>
   <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
     <t>Gate Pass Type</t>
   </si>
   <si>
@@ -140,15 +138,9 @@
     <t>Cement</t>
   </si>
   <si>
-    <t>Greenwood Nest, Kolkata</t>
-  </si>
-  <si>
     <t>From Store</t>
   </si>
   <si>
-    <t>Green Wood Sonata-HIG</t>
-  </si>
-  <si>
     <t>Submitted</t>
   </si>
   <si>
@@ -234,6 +226,9 @@
   </si>
   <si>
     <t>brick</t>
+  </si>
+  <si>
+    <t>Burdwan Township - General</t>
   </si>
 </sst>
 </file>
@@ -646,11 +641,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6949480-756D-481B-94C6-415CA83326A6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6B09B8-84F9-4BA0-9A92-BD98A6146FF8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,30 +693,35 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AED3E1-B4C9-42B5-89EF-F854574DA64D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,12 +737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962B2E5F-9A73-4215-810C-CE695D8ACD64}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789579D-EC90-48B1-856C-5675ED02C125}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -747,7 +774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C070F33-D456-4C41-8FDE-C3BF3810CBCD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -761,7 +788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B22B10-75CF-48E4-A246-A6008B5F37FD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -775,12 +802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5919B039-DAC9-4904-804C-BD59B8AFE784}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46878CEA-008D-4885-A1D8-0623FA6CD5E3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -803,26 +830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB4201B-D1EA-4489-BE6E-FCC046258B64}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF615E0C-C6FF-4C08-A558-54C0A04F88C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +849,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -867,6 +880,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF615E0C-C6FF-4C08-A558-54C0A04F88C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A187966C-8621-408B-A333-78EB5C9E4786}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -880,7 +907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB53EA2-3E93-4981-AA8C-45EE6A38EF2A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -903,7 +930,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -914,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3EFC1-BF4F-46DF-B5D2-91E94FE29D1A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -941,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3E468B-CA4A-46D0-A692-008A57160B0B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -980,64 +1007,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A2135-6D7C-4149-8C2E-197FE32C8C00}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909A2135-6D7C-4149-8C2E-197FE32C8C00}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF86A18-A17C-4AD0-AFA5-693F4160EC91}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1065,18 +1091,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F0C043-C30D-4832-93CA-AEBE3537BDF2}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1099,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99D7EE0-8B9E-435E-80C3-53879FCFEAE4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1114,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,15 +1156,15 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F192AF-05CC-4AF3-A569-4D9458C20896}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1153,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,368 +1195,289 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C8D02-9B1C-4170-A88C-3B4C16DE7C70}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F67D98F-D14B-4400-B56C-B231ED1AF972}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F67D98F-D14B-4400-B56C-B231ED1AF972}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1BCD8-D601-4712-B3BA-73F3EE9B5785}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4450814-FC79-462D-9E8B-7975BD456572}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C093FFC-B9D1-417C-AF36-7ECC37863CB1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5100037-6D11-4E42-9BEA-82A74AC96F76}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD6ED0E-01BC-40FA-9B12-9E2504549D93}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9228C02-4846-4E63-BE24-7CDF506D966D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3646AB-5BCF-4AE4-A458-A4B1C811693A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84752F9D-D7CB-4AC6-945A-781FD03F60EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC49D7AE-F7B0-4731-B07E-C7214F031E20}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1715B97A-6C43-4813-A3AE-E97D64D6CC74}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1BCD8-D601-4712-B3BA-73F3EE9B5785}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4450814-FC79-462D-9E8B-7975BD456572}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C093FFC-B9D1-417C-AF36-7ECC37863CB1}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5100037-6D11-4E42-9BEA-82A74AC96F76}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD6ED0E-01BC-40FA-9B12-9E2504549D93}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9228C02-4846-4E63-BE24-7CDF506D966D}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3646AB-5BCF-4AE4-A458-A4B1C811693A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84752F9D-D7CB-4AC6-945A-781FD03F60EF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC49D7AE-F7B0-4731-B07E-C7214F031E20}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBF240-85DA-46DE-A921-8F5AF9F39D3B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF4EA1-A8D5-4992-ADD6-75C4F4B4BB30}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55005ED0-BF07-4C56-B8BC-57C5891F6658}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7E45B-062B-4700-9C1A-08132C57DFBB}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1498,69 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBF240-85DA-46DE-A921-8F5AF9F39D3B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55005ED0-BF07-4C56-B8BC-57C5891F6658}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1560,11 +1569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBF44A8-5BAE-4B61-97D2-77549D7F94D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7E45B-062B-4700-9C1A-08132C57DFBB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,20 +1589,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBF44A8-5BAE-4B61-97D2-77549D7F94D2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C00D94-C944-4476-AF2A-59D61CC08A29}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1619,15 +1662,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2280987A-1291-4FA3-A70A-DB2F4DFD9D68}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1658,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3087E3B2-89D6-4A28-BFA5-2DB6708D2E8A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1689,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADEDFE-F048-4D6D-8EC7-3D82D8B4D62E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1708,25 +1751,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02DF17-DBFF-4941-A556-E5FEFB2EA5A8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1736,17 +1779,14 @@
   <cols>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E487DB46-DAF8-4CC4-9D10-0974EF078005}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -1757,15 +1797,38 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF4EA1-A8D5-4992-ADD6-75C4F4B4BB30}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2563BA-80D9-4B31-9A1D-9A5222E70A64}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1779,38 +1842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37421DDA-4271-459F-8206-8BC861F62496}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC0A26B-364F-4E0B-B599-B08B9D825F8A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1824,7 +1856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC18AFA-FEA0-4805-A601-8A15990906B9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1838,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6527E9E2-E961-4014-9405-00CA4E40B3A1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1850,18 +1882,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C6B0F-EE12-443F-9353-6B6DC0233884}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1875,23 +1907,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB075CEF-1B5A-4DEA-B78B-633B3644D421}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFFBEC5-B4B3-45DF-835F-058F10F89F4E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -1899,7 +1940,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1920,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525733B-1876-4DC6-A696-ED8E25B7E0E9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1934,9 +1975,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BC360-7970-490D-9642-6799D2088923}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
@@ -1944,7 +1985,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1960,35 +2001,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAF8972-1627-4196-8C90-678074EC73F2}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2010,111 +2051,129 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37421DDA-4271-459F-8206-8BC861F62496}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4922BD49-B4FF-4DB9-9DEE-AA57C7545982}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E56C26F-8A43-48BF-B14E-B25A600AB3FC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D5067-CFC8-4C80-A14E-F0724DD60D6B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6949480-756D-481B-94C6-415CA83326A6}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
